--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_804.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_804.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33012-d78100-Reviews-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>176</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Travelodge-By-Wyndham-San-Clemente-Beach.h21654.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_804.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_804.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1518 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r572777707-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>33012</t>
+  </si>
+  <si>
+    <t>78100</t>
+  </si>
+  <si>
+    <t>572777707</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Overnight stay at the lodge close to the beach with a view</t>
+  </si>
+  <si>
+    <t>I had a great experience at this hotel. The owners were extremely pleasant. Jenny greeted me with the nicest personality. She was very conversational and even gave me a great tip on a restaurant nearby which happen to be excellent Seafood. Her husband Nick was also really pleasant. Room was very clean and up to date. I recommend this location to anyone looking for a clean place to rest. Kudos!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r563707933-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>563707933</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r562164940-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>562164940</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>A night for rest and relaxation</t>
+  </si>
+  <si>
+    <t>This is an excellent place to get some deep relaxation... The patio overlooks the ocean and has a great staff... I would highly recommend this property to anyone looking for an Ocean View Property and low prices...  Great PLACE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r552050703-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>552050703</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Not Fancy, but Good Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place isn't fancy, but the room was spacious and comfortable. We slept well. High marks for the managers/staff, who were friendly and responsive to all of our questions and requests. The only drawback of the room was the appearance of dust behind and under the beds. Needed closer vacuuming. Also, don't expect much for breakfast--mainly coffee, juice, croissants, and cereal. But the price was very reasonable and the location and parking was convenient. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r547522579-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>547522579</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r546436015-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>546436015</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Good location to many day trips.</t>
+  </si>
+  <si>
+    <t>Clean big room with new walk-in shower.Nice friendly manager who takes a real interest in his property and guests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r534377882-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>534377882</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r532406216-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>532406216</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Loved it!!</t>
+  </si>
+  <si>
+    <t>Like you can tell it needed some repairs because of age and probably some stupid customers, but it was so clean and everyone was so nice, no one bothered us, they gave me advice well information about places to go visit while I waited to see my man on base, and everything was stocked we didn't run out of things for the whole week I was there... I will go back whenever my daughter and I visit Cali again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r530927472-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>530927472</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>The bigger rooms were nice, however Ive stayed in a queen room on the first level and it was ok. The complimentary breakfast could be better, I would recommend at least two cereal options and two pastry options.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r510117983-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>510117983</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r503895640-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>503895640</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r502634518-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>502634518</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r490812376-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>490812376</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Modest price, convenient location</t>
+  </si>
+  <si>
+    <t>Nothing special but the room was clean and the location right off of Interstate 5 was convenient for my one night stay while awaiting my vacation rental.  Parking in the back was convenient but if you are concerned about security, note that the room doors are very open to the public</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r488703066-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>488703066</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>The travel lodge is an older building so it's appearance is nothing special. It's in a location that is easily accessible from the highway. It was quiet and the room was clean.  The owner was very friendly and helpful. It was reasonably priced for the area. If you are only planning on spending a night or two I would recommend this hotel as you are probably not in town to spend time in your room but to get out and enjoy the location!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r487139343-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>487139343</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Room: As Expected  Check In:  As Suspected</t>
+  </si>
+  <si>
+    <t>The room was as described by others -- Spartan, dated, but clean.  The breakfast is a bottle of water and a granola bar.  It's right next to I-5, but we were able to sleep fine with the door and window fully closed.  My two recommendations are that the towels could be a bit more plush, and to stop treating guests like suspects--a valid credit card and a quick look at a driver's license should be all that is necessary.  Requiring guests to write all info on a check in card that was previously entered on the Internet reservation is unnecessary, and the copying of the driver's license is slow and uncool.  Maybe you've been stiffed by some cash paying guests, but a valid credit card should provide adequate assurance.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was as described by others -- Spartan, dated, but clean.  The breakfast is a bottle of water and a granola bar.  It's right next to I-5, but we were able to sleep fine with the door and window fully closed.  My two recommendations are that the towels could be a bit more plush, and to stop treating guests like suspects--a valid credit card and a quick look at a driver's license should be all that is necessary.  Requiring guests to write all info on a check in card that was previously entered on the Internet reservation is unnecessary, and the copying of the driver's license is slow and uncool.  Maybe you've been stiffed by some cash paying guests, but a valid credit card should provide adequate assurance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r483035078-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>483035078</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r478916920-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>478916920</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Nice place and Nicer People</t>
+  </si>
+  <si>
+    <t>We needed a nice place to sleep for 2 nights that didn't break the bank. We used our Wyndham Rewards and got a great price on a room.  Ocean View really means "view"...you can see the ocean from our room.  Close to I-5 but not TOO loud; we were on 3rd floor.  Sort of hard to get to, if you don't know back roads...GPS is terrible for direct directions to somewhere; ask the hotel staff to direct you.  The owners were great and very friendly.  Room was nicely decorated and clean.  Parking off road was nice, too.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r476851225-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>476851225</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r462829974-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>462829974</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great for a quick overnight stay. Sheets were thin and the room was a tad chilly, but overall I can't complain. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r458582251-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>458582251</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent Friendly Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I came on short notice to attend to my mother who went into hospice and subsequently died during my visit. It was very difficult. The manager remembered my name and went out of his way to accommodate my needs. I am getting older myself and traveling alone was difficult. I felt as if I was staying with family. The refrigerator was very nice and having a microwave made it possible for me to meet my strict diet.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r457880429-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>457880429</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Old run down</t>
+  </si>
+  <si>
+    <t>Old run down but cheap.  Not as pictured.  Surprised it is a Wyndham property.  On the day of check out the front desk called our room at 10:15am to see if we were checking out or staying.  Very strange when checkout is 11am.  Bed to sleep in at a cheap price but not where we will stay again. Very loud and no heater.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r433750383-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>433750383</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r420669492-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>420669492</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r419917224-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>419917224</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>Our room was fine for what we paid. Management was friendly. Property was very quite.  Continental breakfast failed to our liking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r398679335-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>398679335</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>" Great customer service,and affordable price!</t>
+  </si>
+  <si>
+    <t>We stayed here for four nights,the manager Nick and his staff were very nice and helpful. He even went Above n Beyond to help us out in anything we needed in order to make our family stay more pleasant.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r393240639-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>393240639</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r390850770-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>390850770</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r378797163-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>378797163</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Awesome, cheap, great customer service</t>
+  </si>
+  <si>
+    <t>Really outstanding service getting me a room even though I came at 3 in the morning. I owe them for keeping me away from sleeping in my car and they are so kind! Pretty easy parking and good wifi. BOOK IT!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r373036085-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>373036085</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice front desk</t>
+  </si>
+  <si>
+    <t>Older room and decor.  Did not eat their breakfast.  Outside very clean.  Check in very niceMold in bathroom.  One tiny bottle of shampoo, Bath needed more cleaning.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r372649650-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>372649650</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r368737298-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>368737298</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Ocean View????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was nice but it was on top of the freeway and the noise was so loud all night long. Ocean view? </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r366735792-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>366735792</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>First time lodger...</t>
+  </si>
+  <si>
+    <t>Very nice accommodations,the room was clean and the Hotel was well kept. A beach view, and the nicest staff. Jenny in particular was very kind,of course the breakfast is good but with a coffee maker in the room and a fridge,I was very comfortable.  I will be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r365674364-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>365674364</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>sctravelodge, General Manager at Travelodge by Wyndham San Clemente Beach, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r357178517-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>357178517</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Inexpensive price for an older hotel near the freeway</t>
+  </si>
+  <si>
+    <t>We stayed here on a last minute Expedia deal.  The location is just east of I5 and our room, while spacious and having a balcony, only had a view of the frontage road and the I-5 highway.The room was large with a king size bed and sitting table.  There was free wi-fi , a microwave and a fridgeas well as a flat-screen TV with cable.  It's older and worn but clean.  The bed needs a new mattress.  Given the location, we kept the room AC on to provide some white noise.  Noise insulation between rooms was poor and we could hear their shower and the guy above walking on his floor.Cookies, bagels, coffee and juice in the morning near the lobby.  No pool or Jacuzzi.  Parking is available below the building and in back.  We had no trouble finding a parking spot.The staff was friendly and the price was great but I'll probably stay elsewhere next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on a last minute Expedia deal.  The location is just east of I5 and our room, while spacious and having a balcony, only had a view of the frontage road and the I-5 highway.The room was large with a king size bed and sitting table.  There was free wi-fi , a microwave and a fridgeas well as a flat-screen TV with cable.  It's older and worn but clean.  The bed needs a new mattress.  Given the location, we kept the room AC on to provide some white noise.  Noise insulation between rooms was poor and we could hear their shower and the guy above walking on his floor.Cookies, bagels, coffee and juice in the morning near the lobby.  No pool or Jacuzzi.  Parking is available below the building and in back.  We had no trouble finding a parking spot.The staff was friendly and the price was great but I'll probably stay elsewhere next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r356219316-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>356219316</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Stayed at the Travel Lodge for 15 years on and off</t>
+  </si>
+  <si>
+    <t>I first stayed there in 2000 and I missed a couple years but stayed every winter for 15 years. I stayed in almost all the rooms in that place over the years. Yes some rooms were better than others but all in all I was very happy at the hotel. Close to everything and all the staff are wonderful. Clean and safe.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r353437185-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>353437185</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>Very affordable for the San Clemente Area. We stayed one Saturday night in February and got lucky with this awesome hotel. You're a short 5 minute ride to the downtown area.  The room itself was clean and spacious, the staff was also very friendly, Highly Recommend!!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r342471193-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>342471193</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>BIRTHDAY SURPRISE GETAWAY</t>
+  </si>
+  <si>
+    <t>Easy access to hotel, Room 209 was an King suite with Jacuzzi tub, shower separate from tub, sitting area, large LG Flat screen TV, microwave-coffee maker-refrigerator-in room safe, comfortable chairs and dinning table, balcony with chairs end table smoking allowed, view ocean over 5 freeway, Manager/Owner very helpful, very nice polite,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r340231972-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>340231972</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r336802493-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>336802493</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Visited my doughter´s family and stayed 19 nights in Travelodge San Clemente</t>
+  </si>
+  <si>
+    <t>In this hotel all personel were very helpfull and kind. As I am sensitive for several chemicals, it helped me a lot that there were no chemicals used in my room. Also bed was very comfortable and my back liked it as well. As my room view was to golf course, there was no traffic noise at all. Will return to this hotel next year if I have the possibility to visit my grandchildren for Xmas again.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r325808413-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>325808413</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r322689985-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>322689985</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Quick 48 hr visit</t>
+  </si>
+  <si>
+    <t>3rd floor room was clean and nice, and the distant view to the ocean was more than I'd expected. On-sight management was exceptionally nice and helpful at suggesting local scenery, and we will happily stay again to visit family there. Also, just came from 6 nights at the Venetian / Las Vegas, but slept BETTER the 2 nights here at the Travelodge.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r322533652-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>322533652</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r314120047-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>314120047</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Weekend Stop</t>
+  </si>
+  <si>
+    <t>Incredibly accommodating staff.  Free breakfast. Average room. Small bathroom with one of those unsanitary rubber mats in the tub.  Good location, close to the beach.  Free parking - a real PLUS in San Clemente!</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r313793157-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>313793157</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>I stayed at this Travel Lodge due to handicap needs.  The welcome was very nice, the bathroom just what I needed (beautiful with a non-generic shower).  The hosts were very accommodating.  I do think the morning  coffee room was not very good  The offering was very limited.  Visited  family where the conditions were not accessible for  my limitations.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r303796822-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>303796822</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>recent stay</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler and stay at different hotels every week. I decided to try the Travelodge as my other comfort hotels were not in the area. The room came with a continental breakfast which was atrociously substandard. When a customer is spending roughly $200 a night, a decent breakfast should not be unreasonable. I would not stay here again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r293155363-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>293155363</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Clean place and friendly staff</t>
+  </si>
+  <si>
+    <t>We were passing through and needed a place for the night.  I just want a clean place and our room met that need.  Jenny helped us at the front counter.  Very nice and welcoming.  The room we stayed in (3rd floor, on the end) was designed without a bathroom door, so the tub is visible from the bedroom.  (Toilet area does have a door). I didn't really care about the odd design since I was just passing through the area but I can see how it could be awkward.  Not a bad stay.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r292797321-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>292797321</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>If you just want somewhere to sleep and nothing else...</t>
+  </si>
+  <si>
+    <t>The owners of this Travelodge were nice enough...but was it enough to make up for all the lack? The wifi was non-existent which was aggravating...it would connect but never load. I stayed in room 304 which had ocean views...it was right next door to the golf course where I was attending a wedding which was very convienient. It is right next to a freeway so no opening the windows because of the noise...which was a bummer because the beach was close by.I would not stay at this hotel again, it had the bare minimum of ammenities and the wifi issue irritated me...the continental breakfast consisted of croissant, oatmeal cookies,orange juice &amp; coffee...none of which were spectacular. If you just want to pass out somewhere it works and was a lot cheaper than the hotel next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>The owners of this Travelodge were nice enough...but was it enough to make up for all the lack? The wifi was non-existent which was aggravating...it would connect but never load. I stayed in room 304 which had ocean views...it was right next door to the golf course where I was attending a wedding which was very convienient. It is right next to a freeway so no opening the windows because of the noise...which was a bummer because the beach was close by.I would not stay at this hotel again, it had the bare minimum of ammenities and the wifi issue irritated me...the continental breakfast consisted of croissant, oatmeal cookies,orange juice &amp; coffee...none of which were spectacular. If you just want to pass out somewhere it works and was a lot cheaper than the hotel next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r285317214-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>285317214</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r278388756-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>278388756</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r277364418-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>277364418</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Very Hospitable</t>
+  </si>
+  <si>
+    <t>We needed a reasonably priced, clean, and safe location near the North Gate of Camp Pendleton. Staff outstanding; going out of their way to meet our needs and make our first stay in the area enjoyable.  Easy access (some highway noise, but we didn't mind); enjoyed the second floor balcony with ocean in view.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r273483311-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>273483311</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>I will return on my next visit to San Clemente...</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last fall and was happy enough to repeat last week. The entire place is very clean and well maintained. Every one of the staff, from housekeepers to management, was very friendly and helpful. This is not a new hotel, but it has been maintained well and has nice upgrades. The bed was very comfortable; the room (including bath) was spotless. The linens were fresh and nothing looked old, worn or funky. My room had a balcony on the beach (and freeway) side. Yes, it's noisy, but I do enjoy sitting there with a view of the ocean. The room had a fridge, micro, coffee maker and nice TV. Also a table and three chairs. Overall, very comfortable and the price was reasonable. My stay was so pleasant, I suspect I will book again for my next trip to San Clemente.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last fall and was happy enough to repeat last week. The entire place is very clean and well maintained. Every one of the staff, from housekeepers to management, was very friendly and helpful. This is not a new hotel, but it has been maintained well and has nice upgrades. The bed was very comfortable; the room (including bath) was spotless. The linens were fresh and nothing looked old, worn or funky. My room had a balcony on the beach (and freeway) side. Yes, it's noisy, but I do enjoy sitting there with a view of the ocean. The room had a fridge, micro, coffee maker and nice TV. Also a table and three chairs. Overall, very comfortable and the price was reasonable. My stay was so pleasant, I suspect I will book again for my next trip to San Clemente.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r268959417-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>268959417</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r267660870-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>267660870</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r264871137-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>264871137</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r258802044-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>258802044</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Family!</t>
+  </si>
+  <si>
+    <t>Me senti em casa, os donos são adoráveis e super atenciosos! Com certeza irei voltar a este hotel!I felt home. Nick and Jenny are lovely! Near to the best wave in cali, Trestles!!!For sure i will be back to Travelodge San Clemente!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r251628191-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>251628191</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r239574626-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>239574626</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Pay the extra $25 and go somewhere else</t>
+  </si>
+  <si>
+    <t>I literally booked this room just to sleep in for about 6 hours before heading out to catalina for a few days just so we would not have to fight traffic monday morning. It was horrible! Dirty, dingy and the most uncomfortable bed ever. I imagine prisons have better cleaner beds than this. Needless to say we slept on the bedding and not in it. Also the office staff did not seem to like the fact that we were dropped off by an  uber driver. He isisted we use his buddies taxi service in the am. He actually followed us out to the curb to try to talk us into using the taxi instead. Luckily uber showed up in about 1 minute and we jumped in and left while hd stood there (right next yo me) while the driver and my bf loaded the luggage. Talk about pushy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I literally booked this room just to sleep in for about 6 hours before heading out to catalina for a few days just so we would not have to fight traffic monday morning. It was horrible! Dirty, dingy and the most uncomfortable bed ever. I imagine prisons have better cleaner beds than this. Needless to say we slept on the bedding and not in it. Also the office staff did not seem to like the fact that we were dropped off by an  uber driver. He isisted we use his buddies taxi service in the am. He actually followed us out to the curb to try to talk us into using the taxi instead. Luckily uber showed up in about 1 minute and we jumped in and left while hd stood there (right next yo me) while the driver and my bf loaded the luggage. Talk about pushy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r233216656-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>233216656</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r228209846-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>228209846</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r224338877-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>224338877</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Travelodge at San Clemente Beach is very nice and clean. There is a breakfast, but we went to The Sugar Shack a few blocks north of the motel. Absolutely excellent!  </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r215907054-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>215907054</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Great Stay at a Great Value....</t>
+  </si>
+  <si>
+    <t>The room was awesome and extremely spacious, huge Jacuzzi tub in the bathroom along with a stand alone shower and a private balcony... I loved the room.. The staff was extremely friendly and knowledgeable of the area and activities.. Great Staff, Great Room, Great Stay.. Thanks Mick and staff.. I will return..</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r215817889-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>215817889</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Excellent Customer Care</t>
+  </si>
+  <si>
+    <t>The location is good, right off of the highway and just a few minutes from base.  The onsite managers are really what sets this place apart.  They are very friendly and incredibly helpful.  My schedule during the stay was irregular, but they went out of there way to be accommodating.  I would highly recommend to anyone looking for an inexpensive, quality hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r203163953-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>203163953</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>Don't let the pictures fool you! this place is a dump! The room was dirty! the blanket had stains and also a foot print on it! there were peanut shells on the floor, obviously they did not clean this room! I couldn't switch hotels because it was already reserved and we would lose our money! This place is nasty! it smells nasty too! specially in the "lobby/office" area! At 8am we woke up to the sound of our window shaking, most like from the vibration of an AC going on because there was no type of construction going on, I called the front desk to complain about it and they did not care! These people running this place are not very polite they only care about making money!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Don't let the pictures fool you! this place is a dump! The room was dirty! the blanket had stains and also a foot print on it! there were peanut shells on the floor, obviously they did not clean this room! I couldn't switch hotels because it was already reserved and we would lose our money! This place is nasty! it smells nasty too! specially in the "lobby/office" area! At 8am we woke up to the sound of our window shaking, most like from the vibration of an AC going on because there was no type of construction going on, I called the front desk to complain about it and they did not care! These people running this place are not very polite they only care about making money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r200400447-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>200400447</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r197387376-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>197387376</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r193348534-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>193348534</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>There were clean linens, the bed was comfortable, very quiet, and close to everything.  The best part though was that the staff was extraordinary.  Very polite, friendly, accommodating, and knowledgeable about the area.  Someone checked our room right after checkout and immediately brought down a forgotten item to us.  Great service!!!!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r182839077-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>182839077</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r181316785-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>181316785</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r180276035-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>180276035</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Comfortable bed, bad breakfast, tired and noisy</t>
+  </si>
+  <si>
+    <t>The hotel is located pretty close to the i5 freeway. I didn't mind this but if you don't like traffic noise then avoid. Overall the hotel and room was pretty tired but not unclean. The bed was comfy and everything worked. The staff were polite but they did eyeball us when we went down for breakfast, which was a very unappetising, sparse selection of sugary donuts, cookies and not much else. Can't recommend based on this for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r179401377-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>179401377</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r179271103-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>179271103</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Really friendly owners,clean and big room.</t>
+  </si>
+  <si>
+    <t>It was my first time to come LA and San Clemente.We went there with my 2friends and we shared the biggest room.The room was really big.shower is always works good.I'll come back here next year for sure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r174150144-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>174150144</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r172724693-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>172724693</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r170431928-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>170431928</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Beach Trip, July 2013</t>
+  </si>
+  <si>
+    <t>We started in San Diego and worked our way up the coast.  No plans, No agenda!  The most taxing thing we did for the week was find a place to stay for the following night.   Nick and Jenny were The most gracious and helpful staff members we have ever encountered! The room was large and clean. A 3 minute car ride to the beach with parking and showers!  We would gladly stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r169997266-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>169997266</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r166807414-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>166807414</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Clean, cramped and in need of a face lift</t>
+  </si>
+  <si>
+    <t>I was a bit chagrined when I got to this travelodge.  I had picked it for price and reliability of the brand.  There were several hotels nearby and I do wish I had stayed at one of them.  There are times I am spending time with friends and only need a place to sleep.  This was one of them.  It was July 4, so as its a holiday i had few expectations.  But really wish I had gone somewhere the odor of curry did not hang in the air.  We has a golf course view.   That was good.  Golf ears make less noise than the freeway traffic.. This falls into the category of " if the price is cheap enough, you can put up with anything"MoreShow less</t>
+  </si>
+  <si>
+    <t>I was a bit chagrined when I got to this travelodge.  I had picked it for price and reliability of the brand.  There were several hotels nearby and I do wish I had stayed at one of them.  There are times I am spending time with friends and only need a place to sleep.  This was one of them.  It was July 4, so as its a holiday i had few expectations.  But really wish I had gone somewhere the odor of curry did not hang in the air.  We has a golf course view.   That was good.  Golf ears make less noise than the freeway traffic.. This falls into the category of " if the price is cheap enough, you can put up with anything"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r165245291-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>165245291</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>Felt like I was a part of the family. Very nice room and service. The owners are very friendly and will bend over backwards to accommodate your stay. Lots of good discounts on nearby businesses, close to stores and shopping. Highly recommended!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r162356513-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>162356513</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r158315407-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>158315407</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r157723951-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>157723951</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r156894576-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>156894576</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r149692950-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>149692950</t>
+  </si>
+  <si>
+    <t>01/14/2013</t>
+  </si>
+  <si>
+    <t>Not new and flash but wonderful owners and value</t>
+  </si>
+  <si>
+    <t>OK OK This motel is old and not new and shiny.  HOWEVER the owners Jenny &amp; Nick go out of their way to really make you feel like family members on a visit.  They are so helpful with restaurant suggestions.Their attitude spills over to the staff.  I love strong coffee and asked for extra.  With a smile the maid went and returned with enough for a week!We stayed here last year and I saved the phone number and called to make my reservation directly just so they'd know they were so fondly remembered.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r148318700-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>148318700</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r146765803-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>146765803</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>5 stars because of service</t>
+  </si>
+  <si>
+    <t>Okay the hotel isn't in the best condition, but the beds are nice and the rooms are spacious. The best thing are the owners. This was literally the only hotel willing to let us check in early without charging extra. They were so accommodating and nice. If your looking for something that won't break the bank but is still really nice- here it is.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r143644348-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>143644348</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r142493327-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>142493327</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r142399080-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>142399080</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>nice little hotel with truly great staff.  the staff there made us feel right at home and we really enjoyed our stay.  we had a nice ocean view room, and we able to walk down to the beach in about 15 min.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r124557724-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>124557724</t>
+  </si>
+  <si>
+    <t>02/13/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel. Staff is out of this world to accommodate needs!</t>
+  </si>
+  <si>
+    <t>I travel ALOT for work and let me tell you the staff at this place is out of this world!!! I checked in about 2am. The manager that was working the night shift really too the extra step to make sure all my needs were taken care of. CLEAN CLEAN CLEAN ROOMS!! I am a really clean freak i was really amazed to see how clean the rooms were. Nice clean bad full pillows. Flat screen tv. Nice view of out side. I WOULD REALLY RECOMMEND THIS PLACE FOR MY OWN FRIENDS AND FAMILY.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r122231643-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>122231643</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Not that great</t>
+  </si>
+  <si>
+    <t>The San Clemente Travelodge is an older hotel on the city's main drag. It's basic with not too many frills. Space is at such a premium that the Coke and ice machines are outside the lobby in the parking garage.Honestly, I might have given this rating an "average" instead of "poor" except for the fact that our room reeked of pot. We thought it was a previous guest after the scent went away, but the next morning, it came back in full force, leading us to think it was someone across the hall. Now, hotels can't always control its guests. But we were staying there over Christmas with our family, which made it worse. The staff, though, was nice and accommodating, even adding a lemony scent to our room (perhaps we were a little too subtle in explaining our situation). Bottom line: If you're young and looking for a cheap place to crash by the beach, this would be good. For families, though, look somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>The San Clemente Travelodge is an older hotel on the city's main drag. It's basic with not too many frills. Space is at such a premium that the Coke and ice machines are outside the lobby in the parking garage.Honestly, I might have given this rating an "average" instead of "poor" except for the fact that our room reeked of pot. We thought it was a previous guest after the scent went away, but the next morning, it came back in full force, leading us to think it was someone across the hall. Now, hotels can't always control its guests. But we were staying there over Christmas with our family, which made it worse. The staff, though, was nice and accommodating, even adding a lemony scent to our room (perhaps we were a little too subtle in explaining our situation). Bottom line: If you're young and looking for a cheap place to crash by the beach, this would be good. For families, though, look somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r117873237-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>117873237</t>
+  </si>
+  <si>
+    <t>09/09/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This small hotel met all our needs as my husband and I traveled with our two young kids and my mother. The extended suite was a good size for us, and the breakfasts (included) had a huge selection, including waffles! The staff was friendly and accommodating, and the rooms (and rest of hotel) were very clean. We appreciated the under-hotel parking as well. The outdoor pool and spa were great, too. It was a lovely place to stay!</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r92213565-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>92213565</t>
+  </si>
+  <si>
+    <t>01/08/2011</t>
+  </si>
+  <si>
+    <t>Very neat and clean</t>
+  </si>
+  <si>
+    <t>I travel a lot to San Clemente CA as I have Conferences to attend at San Onofre Nuclear Generating Station , I prefer to stay at Travel Lodge all the time ., They have very good rooms and excellent House Keeping .</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r91424174-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>91424174</t>
+  </si>
+  <si>
+    <t>01/02/2011</t>
+  </si>
+  <si>
+    <t>Great value, great service.</t>
+  </si>
+  <si>
+    <t>We stayed here for a night on our Southern Cali road trip. This motel provided great value and very friendly service. The room was clean, the building is relatively old and close to the highway. This is a motel, not a five star hotel. That said, it doesn't get much better in this price range.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r78320208-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>78320208</t>
+  </si>
+  <si>
+    <t>09/05/2010</t>
+  </si>
+  <si>
+    <t>Never Again.</t>
+  </si>
+  <si>
+    <t>Alright, i honestly cant believe all of the positive comments on this hotels staff. I was treated horribly my entire stay. I was so miserable there that me and my boyfriend left early. They would yell and throw a fit if we had any visitors past 6pm. Not to mention they completely harrassed a couple of our guests. The staff treated our guests like tresspassers and would escort them out to their cars(our guests were nothing but polite). There was a loud get together of some sorts going on down the hall from us as my boyfriend and i were laying in bed with the music on (not too loudly) and they call to tell us we are being to loud. Ridiculous. I cant even put into words how miserable i was. Miserable enough for it to become a joke that this hotel was probably like jail between me and my boyfriend. Also, our room was the size of a shoe box and the breakfast looked like something set out for some pets. They are also very stingy with their internet, so their "FREE INTERNET" sign that you see as soon as you walk in the door should mention that it comes with griping and moaning. I can understand how pushing that button that prints out the internet code can be tiring. The best part of that stay was driving away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>sctravelodge, Manager at Travelodge by Wyndham San Clemente Beach, responded to this reviewResponded December 21, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2010</t>
+  </si>
+  <si>
+    <t>Alright, i honestly cant believe all of the positive comments on this hotels staff. I was treated horribly my entire stay. I was so miserable there that me and my boyfriend left early. They would yell and throw a fit if we had any visitors past 6pm. Not to mention they completely harrassed a couple of our guests. The staff treated our guests like tresspassers and would escort them out to their cars(our guests were nothing but polite). There was a loud get together of some sorts going on down the hall from us as my boyfriend and i were laying in bed with the music on (not too loudly) and they call to tell us we are being to loud. Ridiculous. I cant even put into words how miserable i was. Miserable enough for it to become a joke that this hotel was probably like jail between me and my boyfriend. Also, our room was the size of a shoe box and the breakfast looked like something set out for some pets. They are also very stingy with their internet, so their "FREE INTERNET" sign that you see as soon as you walk in the door should mention that it comes with griping and moaning. I can understand how pushing that button that prints out the internet code can be tiring. The best part of that stay was driving away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r57040754-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>57040754</t>
+  </si>
+  <si>
+    <t>02/24/2010</t>
+  </si>
+  <si>
+    <t>Super clean, super polite, super helpful</t>
+  </si>
+  <si>
+    <t>The nicest, most helpful people run this place... I ruined my room's cardkey a few times when it brushed against my cellphone, and they barely flinched at my (repetitive) stupidity.  Just super nice, no-nonsense people all the way around.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r22965384-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>22965384</t>
+  </si>
+  <si>
+    <t>12/23/2008</t>
+  </si>
+  <si>
+    <t>Bachelor's pad rental</t>
+  </si>
+  <si>
+    <t>Me and a surfing buddy stayed here a week. Too far to walk to the beach with a board, but it was ok. Parking was horrible. It was a room to sleep in, which is about all we did. Clean towels and extra coffee everyday like we asked. Service was fine and the place was cleaned daily. Real close to Pedro's taco stand, and the road behind the hotel leads right there. For a place to sleep, it was fine, but I wouldn't take a family there.  for the price it was, not bad. Right off the highway.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r18775458-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>18775458</t>
+  </si>
+  <si>
+    <t>08/09/2008</t>
+  </si>
+  <si>
+    <t>Great if you are a hearing impaired smoker</t>
+  </si>
+  <si>
+    <t>I do NOT like to give negative reviews but I wish someone had given me a heads up about this Travelodge. The staff was very sweet and did the best with what they had to work with but  at $150 per night (which I was told at check in was a good deal) I was hoping for the room that was described...non smoking with an ocean view. Although the room was designated  (indeed the entire hotel) as non smoking, it literally reeked of cigarette smoke. The windows did not open.The smoky curtain covered doors opened onto a deck that was literally over the freeway.  My husband and I left the doors open to air out the room but it never actually happened. It was somewhat comical shouting back and forth to each other over the Hwy 101 traffic. .trucks, buses and all. When the clouds lifted on the second day, we finally saw the little peek of ocean way across the freeway. I have to admit though, I felt better about our room when I saw my sister-in-laws on the first floor which looked like a damp black hole. Sorry, I have to give this one a big thumbs down.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I do NOT like to give negative reviews but I wish someone had given me a heads up about this Travelodge. The staff was very sweet and did the best with what they had to work with but  at $150 per night (which I was told at check in was a good deal) I was hoping for the room that was described...non smoking with an ocean view. Although the room was designated  (indeed the entire hotel) as non smoking, it literally reeked of cigarette smoke. The windows did not open.The smoky curtain covered doors opened onto a deck that was literally over the freeway.  My husband and I left the doors open to air out the room but it never actually happened. It was somewhat comical shouting back and forth to each other over the Hwy 101 traffic. .trucks, buses and all. When the clouds lifted on the second day, we finally saw the little peek of ocean way across the freeway. I have to admit though, I felt better about our room when I saw my sister-in-laws on the first floor which looked like a damp black hole. Sorry, I have to give this one a big thumbs down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r12747278-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>12747278</t>
+  </si>
+  <si>
+    <t>01/17/2008</t>
+  </si>
+  <si>
+    <t>Good price with very nice room &amp; privacy!</t>
+  </si>
+  <si>
+    <t>I've actually stayed at this particular Travelodge twice &amp; both times I had a very nice stay. I got a standard room &amp; was upgraded to the suite (with the jet tub) free, since it wasn't occupied &amp; I was staying for a week.  The staff is very friendly and if you ever need something (towels, pillows, soap...etc) they come riht up and give it to you. I had no problems and the room ws spacious and the bed was comfortable. It was not noisey at all, seeing was though it is off of the busy 5 freeway. Very convenient if you need to get somewhere, the 5 is right across the way.  There are restraunts and a local grocery store within 5 minutes from the hotel "Ralphs". Right next door there's a "mart", gas station &amp; behind is a golfing range. I would definitely recommend Travelodge to anyone. They even provide a nice covered parking spot for all customers in there's garage (free of course). I liked it because it was small, quiet &amp; comfy. Stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>I've actually stayed at this particular Travelodge twice &amp; both times I had a very nice stay. I got a standard room &amp; was upgraded to the suite (with the jet tub) free, since it wasn't occupied &amp; I was staying for a week.  The staff is very friendly and if you ever need something (towels, pillows, soap...etc) they come riht up and give it to you. I had no problems and the room ws spacious and the bed was comfortable. It was not noisey at all, seeing was though it is off of the busy 5 freeway. Very convenient if you need to get somewhere, the 5 is right across the way.  There are restraunts and a local grocery store within 5 minutes from the hotel "Ralphs". Right next door there's a "mart", gas station &amp; behind is a golfing range. I would definitely recommend Travelodge to anyone. They even provide a nice covered parking spot for all customers in there's garage (free of course). I liked it because it was small, quiet &amp; comfy. Stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r10086349-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>10086349</t>
+  </si>
+  <si>
+    <t>10/16/2007</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights. The room was spacious, very clean, bathroom large, bed very comfortable. Even if we didn't have a balcony we could enjoy the view from a little terrace just outside the room. Staff very very friendly and helpful. Distance from the pier and the beach is minimal.For the price, we highly recommend it and we'll go back again!</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r10048793-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>10048793</t>
+  </si>
+  <si>
+    <t>10/07/2007</t>
+  </si>
+  <si>
+    <t>Honest Personnel Good 4 1 Night +</t>
+  </si>
+  <si>
+    <t>We drove by and stopped, stayed due to cost.  In  the evening after driving all day we were tired...this looked like a decent motel we needed to park in back as room was on 1st floor in rear.  Room was OK looked clean. front of room had balcony and overlooked busy highway.  I left my cell phone there by mistake, room service found it and Nicky &amp; Jenny (owners) sent it back to me via pre-paid fedex.  It was very honest of them since it was a newer blackberry...I would stay there again if I was in the area as accomodations good and price was right.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r830235-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>830235</t>
+  </si>
+  <si>
+    <t>12/30/2002</t>
+  </si>
+  <si>
+    <t>we liked the travelodge</t>
+  </si>
+  <si>
+    <t>Has nice big comfortable rooms, small refrigerator and microwave. Inside parking/ nice helpful staff. We like privacy, and we never got hassled. The only thing the picture doesn't show is that the motel is right on the freeway, and its noisy with the door open to the outside. Its about 6 blocks to the beach. We would stay here again. Its inexpensive, free rolls and coffee in morning, and is just nice for its price range, about 70 dollars a night, and that was in August, San Clemente is a great place to vacation in.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2160,6354 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>172</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>172</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s">
+        <v>189</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>190</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" t="s">
+        <v>198</v>
+      </c>
+      <c r="L32" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>184</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>184</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>184</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>208</v>
+      </c>
+      <c r="X34" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" t="s">
+        <v>214</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>194</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" t="s">
+        <v>226</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>227</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>221</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>221</v>
+      </c>
+      <c r="O39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>241</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>243</v>
+      </c>
+      <c r="J41" t="s">
+        <v>244</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>245</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>247</v>
+      </c>
+      <c r="J42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" t="s">
+        <v>250</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" t="s">
+        <v>259</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" t="s">
+        <v>263</v>
+      </c>
+      <c r="K45" t="s">
+        <v>264</v>
+      </c>
+      <c r="L45" t="s">
+        <v>265</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>260</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>267</v>
+      </c>
+      <c r="J46" t="s">
+        <v>268</v>
+      </c>
+      <c r="K46" t="s">
+        <v>269</v>
+      </c>
+      <c r="L46" t="s">
+        <v>270</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>271</v>
+      </c>
+      <c r="O46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>273</v>
+      </c>
+      <c r="J47" t="s">
+        <v>274</v>
+      </c>
+      <c r="K47" t="s">
+        <v>275</v>
+      </c>
+      <c r="L47" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>277</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>278</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>279</v>
+      </c>
+      <c r="J48" t="s">
+        <v>280</v>
+      </c>
+      <c r="K48" t="s">
+        <v>281</v>
+      </c>
+      <c r="L48" t="s">
+        <v>282</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>277</v>
+      </c>
+      <c r="O48" t="s">
+        <v>107</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49" t="s">
+        <v>286</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>287</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>289</v>
+      </c>
+      <c r="J50" t="s">
+        <v>290</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>106</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
+      </c>
+      <c r="O50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>293</v>
+      </c>
+      <c r="J51" t="s">
+        <v>294</v>
+      </c>
+      <c r="K51" t="s">
+        <v>295</v>
+      </c>
+      <c r="L51" t="s">
+        <v>296</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>287</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>297</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52" t="s">
+        <v>299</v>
+      </c>
+      <c r="K52" t="s">
+        <v>300</v>
+      </c>
+      <c r="L52" t="s">
+        <v>301</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>291</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>305</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>106</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>306</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" t="s">
+        <v>309</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>306</v>
+      </c>
+      <c r="O54" t="s">
+        <v>107</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>311</v>
+      </c>
+      <c r="J55" t="s">
+        <v>312</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>306</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>314</v>
+      </c>
+      <c r="J56" t="s">
+        <v>315</v>
+      </c>
+      <c r="K56" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" t="s">
+        <v>317</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>318</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>319</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>320</v>
+      </c>
+      <c r="J57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>318</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>323</v>
+      </c>
+      <c r="J58" t="s">
+        <v>324</v>
+      </c>
+      <c r="K58" t="s">
+        <v>325</v>
+      </c>
+      <c r="L58" t="s">
+        <v>326</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>327</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>330</v>
+      </c>
+      <c r="J59" t="s">
+        <v>331</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>332</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>333</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>334</v>
+      </c>
+      <c r="J60" t="s">
+        <v>335</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>332</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>336</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>337</v>
+      </c>
+      <c r="J61" t="s">
+        <v>338</v>
+      </c>
+      <c r="K61" t="s">
+        <v>339</v>
+      </c>
+      <c r="L61" t="s">
+        <v>340</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>341</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>343</v>
+      </c>
+      <c r="J62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K62" t="s">
+        <v>345</v>
+      </c>
+      <c r="L62" t="s">
+        <v>346</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>347</v>
+      </c>
+      <c r="O62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>348</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>349</v>
+      </c>
+      <c r="J63" t="s">
+        <v>350</v>
+      </c>
+      <c r="K63" t="s">
+        <v>351</v>
+      </c>
+      <c r="L63" t="s">
+        <v>352</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>347</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>353</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>354</v>
+      </c>
+      <c r="J64" t="s">
+        <v>355</v>
+      </c>
+      <c r="K64" t="s">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s">
+        <v>357</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>358</v>
+      </c>
+      <c r="O64" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>360</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" t="s">
+        <v>362</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>358</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>363</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>364</v>
+      </c>
+      <c r="J66" t="s">
+        <v>365</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>366</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>367</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>368</v>
+      </c>
+      <c r="J67" t="s">
+        <v>369</v>
+      </c>
+      <c r="K67" t="s">
+        <v>370</v>
+      </c>
+      <c r="L67" t="s">
+        <v>371</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>372</v>
+      </c>
+      <c r="O67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>373</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>374</v>
+      </c>
+      <c r="J68" t="s">
+        <v>375</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>376</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>377</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" t="s">
+        <v>379</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>376</v>
+      </c>
+      <c r="O69" t="s">
+        <v>58</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>381</v>
+      </c>
+      <c r="J70" t="s">
+        <v>382</v>
+      </c>
+      <c r="K70" t="s">
+        <v>383</v>
+      </c>
+      <c r="L70" t="s">
+        <v>384</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>376</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>385</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>386</v>
+      </c>
+      <c r="J71" t="s">
+        <v>387</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>388</v>
+      </c>
+      <c r="O71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>389</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" t="s">
+        <v>391</v>
+      </c>
+      <c r="K72" t="s">
+        <v>392</v>
+      </c>
+      <c r="L72" t="s">
+        <v>393</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>388</v>
+      </c>
+      <c r="O72" t="s">
+        <v>107</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>394</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>395</v>
+      </c>
+      <c r="J73" t="s">
+        <v>396</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>106</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>397</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>398</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>399</v>
+      </c>
+      <c r="J74" t="s">
+        <v>400</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>397</v>
+      </c>
+      <c r="O74" t="s">
+        <v>58</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>401</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>402</v>
+      </c>
+      <c r="J75" t="s">
+        <v>403</v>
+      </c>
+      <c r="K75" t="s">
+        <v>404</v>
+      </c>
+      <c r="L75" t="s">
+        <v>405</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>397</v>
+      </c>
+      <c r="O75" t="s">
+        <v>58</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>406</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" t="s">
+        <v>408</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>409</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>410</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>411</v>
+      </c>
+      <c r="J77" t="s">
+        <v>412</v>
+      </c>
+      <c r="K77" t="s">
+        <v>413</v>
+      </c>
+      <c r="L77" t="s">
+        <v>414</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>409</v>
+      </c>
+      <c r="O77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>416</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>417</v>
+      </c>
+      <c r="J78" t="s">
+        <v>418</v>
+      </c>
+      <c r="K78" t="s">
+        <v>419</v>
+      </c>
+      <c r="L78" t="s">
+        <v>420</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>421</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>422</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>423</v>
+      </c>
+      <c r="J79" t="s">
+        <v>424</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>425</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>426</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>427</v>
+      </c>
+      <c r="J80" t="s">
+        <v>428</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>429</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>430</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>431</v>
+      </c>
+      <c r="J81" t="s">
+        <v>432</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>433</v>
+      </c>
+      <c r="O81" t="s">
+        <v>64</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>434</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>435</v>
+      </c>
+      <c r="J82" t="s">
+        <v>436</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>433</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>437</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>438</v>
+      </c>
+      <c r="J83" t="s">
+        <v>439</v>
+      </c>
+      <c r="K83" t="s">
+        <v>440</v>
+      </c>
+      <c r="L83" t="s">
+        <v>441</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>442</v>
+      </c>
+      <c r="O83" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>443</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>444</v>
+      </c>
+      <c r="J84" t="s">
+        <v>445</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>446</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>447</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>448</v>
+      </c>
+      <c r="J85" t="s">
+        <v>449</v>
+      </c>
+      <c r="K85" t="s">
+        <v>450</v>
+      </c>
+      <c r="L85" t="s">
+        <v>451</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>452</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>453</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>454</v>
+      </c>
+      <c r="J86" t="s">
+        <v>455</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>456</v>
+      </c>
+      <c r="O86" t="s">
+        <v>107</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>457</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>458</v>
+      </c>
+      <c r="J87" t="s">
+        <v>459</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>456</v>
+      </c>
+      <c r="O87" t="s">
+        <v>58</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>460</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>461</v>
+      </c>
+      <c r="J88" t="s">
+        <v>462</v>
+      </c>
+      <c r="K88" t="s">
+        <v>463</v>
+      </c>
+      <c r="L88" t="s">
+        <v>464</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>465</v>
+      </c>
+      <c r="O88" t="s">
+        <v>58</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>466</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>467</v>
+      </c>
+      <c r="J89" t="s">
+        <v>468</v>
+      </c>
+      <c r="K89" t="s">
+        <v>469</v>
+      </c>
+      <c r="L89" t="s">
+        <v>470</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>471</v>
+      </c>
+      <c r="O89" t="s">
+        <v>64</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>472</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>473</v>
+      </c>
+      <c r="J90" t="s">
+        <v>474</v>
+      </c>
+      <c r="K90" t="s">
+        <v>475</v>
+      </c>
+      <c r="L90" t="s">
+        <v>476</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>477</v>
+      </c>
+      <c r="O90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>479</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>480</v>
+      </c>
+      <c r="J91" t="s">
+        <v>481</v>
+      </c>
+      <c r="K91" t="s">
+        <v>482</v>
+      </c>
+      <c r="L91" t="s">
+        <v>483</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>484</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>485</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>486</v>
+      </c>
+      <c r="J92" t="s">
+        <v>487</v>
+      </c>
+      <c r="K92" t="s">
+        <v>488</v>
+      </c>
+      <c r="L92" t="s">
+        <v>489</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>490</v>
+      </c>
+      <c r="O92" t="s">
+        <v>64</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>491</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>492</v>
+      </c>
+      <c r="J93" t="s">
+        <v>493</v>
+      </c>
+      <c r="K93" t="s">
+        <v>494</v>
+      </c>
+      <c r="L93" t="s">
+        <v>495</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>496</v>
+      </c>
+      <c r="O93" t="s">
+        <v>58</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>497</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>498</v>
+      </c>
+      <c r="J94" t="s">
+        <v>499</v>
+      </c>
+      <c r="K94" t="s">
+        <v>500</v>
+      </c>
+      <c r="L94" t="s">
+        <v>501</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>502</v>
+      </c>
+      <c r="O94" t="s">
+        <v>58</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>503</v>
+      </c>
+      <c r="X94" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>506</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>507</v>
+      </c>
+      <c r="J95" t="s">
+        <v>508</v>
+      </c>
+      <c r="K95" t="s">
+        <v>509</v>
+      </c>
+      <c r="L95" t="s">
+        <v>510</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>511</v>
+      </c>
+      <c r="O95" t="s">
+        <v>64</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>512</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>513</v>
+      </c>
+      <c r="J96" t="s">
+        <v>514</v>
+      </c>
+      <c r="K96" t="s">
+        <v>515</v>
+      </c>
+      <c r="L96" t="s">
+        <v>516</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>517</v>
+      </c>
+      <c r="O96" t="s">
+        <v>107</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>518</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>519</v>
+      </c>
+      <c r="J97" t="s">
+        <v>520</v>
+      </c>
+      <c r="K97" t="s">
+        <v>521</v>
+      </c>
+      <c r="L97" t="s">
+        <v>522</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>523</v>
+      </c>
+      <c r="O97" t="s">
+        <v>58</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>525</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>526</v>
+      </c>
+      <c r="J98" t="s">
+        <v>527</v>
+      </c>
+      <c r="K98" t="s">
+        <v>528</v>
+      </c>
+      <c r="L98" t="s">
+        <v>529</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>530</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>532</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>533</v>
+      </c>
+      <c r="J99" t="s">
+        <v>534</v>
+      </c>
+      <c r="K99" t="s">
+        <v>535</v>
+      </c>
+      <c r="L99" t="s">
+        <v>536</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>537</v>
+      </c>
+      <c r="O99" t="s">
+        <v>58</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>538</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>539</v>
+      </c>
+      <c r="J100" t="s">
+        <v>540</v>
+      </c>
+      <c r="K100" t="s">
+        <v>541</v>
+      </c>
+      <c r="L100" t="s">
+        <v>542</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>537</v>
+      </c>
+      <c r="O100" t="s">
+        <v>58</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>21815</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>543</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>544</v>
+      </c>
+      <c r="J101" t="s">
+        <v>545</v>
+      </c>
+      <c r="K101" t="s">
+        <v>546</v>
+      </c>
+      <c r="L101" t="s">
+        <v>547</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>547</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_804.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_804.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>goj764</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Debra L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r563707933-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>abrill624050</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r562164940-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MyTwoCents11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r552050703-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Rob N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r547522579-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -243,6 +258,9 @@
     <t>12/16/2017</t>
   </si>
   <si>
+    <t>A8196QPadamw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r546436015-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -258,6 +276,9 @@
     <t>Clean big room with new walk-in shower.Nice friendly manager who takes a real interest in his property and guests.</t>
   </si>
   <si>
+    <t>C7607WXbobs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r534377882-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -270,6 +291,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Evelyn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r532406216-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -285,6 +309,9 @@
     <t>Like you can tell it needed some repairs because of age and probably some stupid customers, but it was so clean and everyone was so nice, no one bothered us, they gave me advice well information about places to go visit while I waited to see my man on base, and everything was stocked we didn't run out of things for the whole week I was there... I will go back whenever my daughter and I visit Cali again</t>
   </si>
   <si>
+    <t>Angelina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r530927472-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -303,6 +330,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Todd H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r510117983-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -315,6 +345,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Dan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r503895640-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -327,6 +360,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>chrisdmassey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r502634518-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -345,6 +381,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>VinceTrav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r490812376-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -363,6 +402,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Marsha H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r488703066-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -378,6 +420,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>JayVi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r487139343-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -396,6 +441,9 @@
     <t>The room was as described by others -- Spartan, dated, but clean.  The breakfast is a bottle of water and a granola bar.  It's right next to I-5, but we were able to sleep fine with the door and window fully closed.  My two recommendations are that the towels could be a bit more plush, and to stop treating guests like suspects--a valid credit card and a quick look at a driver's license should be all that is necessary.  Requiring guests to write all info on a check in card that was previously entered on the Internet reservation is unnecessary, and the copying of the driver's license is slow and uncool.  Maybe you've been stiffed by some cash paying guests, but a valid credit card should provide adequate assurance.More</t>
   </si>
   <si>
+    <t>Maureen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r483035078-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -405,6 +453,9 @@
     <t>05/09/2017</t>
   </si>
   <si>
+    <t>Robin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r478916920-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -423,6 +474,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>840ramonar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r476851225-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -432,6 +486,9 @@
     <t>04/18/2017</t>
   </si>
   <si>
+    <t>amylJ9762GF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r462829974-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -450,6 +507,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Y1539DAjaneth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r458582251-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -465,6 +525,9 @@
     <t xml:space="preserve">I came on short notice to attend to my mother who went into hospice and subsequently died during my visit. It was very difficult. The manager remembered my name and went out of his way to accommodate my needs. I am getting older myself and traveling alone was difficult. I felt as if I was staying with family. The refrigerator was very nice and having a microwave made it possible for me to meet my strict diet.   </t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r457880429-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -480,6 +543,9 @@
     <t>Old run down but cheap.  Not as pictured.  Surprised it is a Wyndham property.  On the day of check out the front desk called our room at 10:15am to see if we were checking out or staying.  Very strange when checkout is 11am.  Bed to sleep in at a cheap price but not where we will stay again. Very loud and no heater.</t>
   </si>
   <si>
+    <t>478justinee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r433750383-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -492,6 +558,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Jay B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r420669492-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -504,6 +573,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Marilyn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r419917224-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -519,6 +591,9 @@
     <t>Our room was fine for what we paid. Management was friendly. Property was very quite.  Continental breakfast failed to our liking.</t>
   </si>
   <si>
+    <t>nash209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r398679335-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -537,6 +612,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>aldonetti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r393240639-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -546,6 +624,9 @@
     <t>07/16/2016</t>
   </si>
   <si>
+    <t>Tori8x10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r390850770-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -555,6 +636,9 @@
     <t>07/09/2016</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r378797163-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -573,6 +657,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>jecchh2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r373036085-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -591,6 +678,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Mary J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r372649650-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -603,6 +693,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>brianwG953VQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r368737298-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -618,6 +711,9 @@
     <t xml:space="preserve">The room was nice but it was on top of the freeway and the noise was so loud all night long. Ocean view? </t>
   </si>
   <si>
+    <t>Allan  H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r366735792-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -633,6 +729,9 @@
     <t>Very nice accommodations,the room was clean and the Hotel was well kept. A beach view, and the nicest staff. Jenny in particular was very kind,of course the breakfast is good but with a coffee maker in the room and a fridge,I was very comfortable.  I will be back!</t>
   </si>
   <si>
+    <t>V809NKmarkg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r365674364-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -648,6 +747,9 @@
     <t>Responded April 22, 2016</t>
   </si>
   <si>
+    <t>Marco W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r357178517-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -666,6 +768,9 @@
     <t>We stayed here on a last minute Expedia deal.  The location is just east of I5 and our room, while spacious and having a balcony, only had a view of the frontage road and the I-5 highway.The room was large with a king size bed and sitting table.  There was free wi-fi , a microwave and a fridgeas well as a flat-screen TV with cable.  It's older and worn but clean.  The bed needs a new mattress.  Given the location, we kept the room AC on to provide some white noise.  Noise insulation between rooms was poor and we could hear their shower and the guy above walking on his floor.Cookies, bagels, coffee and juice in the morning near the lobby.  No pool or Jacuzzi.  Parking is available below the building and in back.  We had no trouble finding a parking spot.The staff was friendly and the price was great but I'll probably stay elsewhere next time.More</t>
   </si>
   <si>
+    <t>danweld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r356219316-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -684,6 +789,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>liza w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r353437185-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -702,6 +810,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jane F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r342471193-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -717,6 +828,9 @@
     <t>Easy access to hotel, Room 209 was an King suite with Jacuzzi tub, shower separate from tub, sitting area, large LG Flat screen TV, microwave-coffee maker-refrigerator-in room safe, comfortable chairs and dinning table, balcony with chairs end table smoking allowed, view ocean over 5 freeway, Manager/Owner very helpful, very nice polite,</t>
   </si>
   <si>
+    <t>119kathy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r340231972-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -726,6 +840,9 @@
     <t>01/15/2016</t>
   </si>
   <si>
+    <t>Maria S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r336802493-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -744,6 +861,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>rdeitz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r325808413-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -756,6 +876,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>wrglenn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r322689985-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -774,6 +897,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>KarenandPoodle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r322533652-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -783,6 +909,9 @@
     <t>10/27/2015</t>
   </si>
   <si>
+    <t>kat257</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r314120047-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -801,6 +930,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Almetta M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r313793157-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -816,6 +948,9 @@
     <t>I stayed at this Travel Lodge due to handicap needs.  The welcome was very nice, the bathroom just what I needed (beautiful with a non-generic shower).  The hosts were very accommodating.  I do think the morning  coffee room was not very good  The offering was very limited.  Visited  family where the conditions were not accessible for  my limitations.  I would stay here again.</t>
   </si>
   <si>
+    <t>B4103CXdanielf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r303796822-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -834,6 +969,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>autumn1010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r293155363-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -852,6 +990,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>mimota66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r292797321-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -870,6 +1011,9 @@
     <t>The owners of this Travelodge were nice enough...but was it enough to make up for all the lack? The wifi was non-existent which was aggravating...it would connect but never load. I stayed in room 304 which had ocean views...it was right next door to the golf course where I was attending a wedding which was very convienient. It is right next to a freeway so no opening the windows because of the noise...which was a bummer because the beach was close by.I would not stay at this hotel again, it had the bare minimum of ammenities and the wifi issue irritated me...the continental breakfast consisted of croissant, oatmeal cookies,orange juice &amp; coffee...none of which were spectacular. If you just want to pass out somewhere it works and was a lot cheaper than the hotel next door.More</t>
   </si>
   <si>
+    <t>I347ACnicoleg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r285317214-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -882,6 +1026,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>sara y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r278388756-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -894,6 +1041,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Virginians41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r277364418-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -909,6 +1059,9 @@
     <t>We needed a reasonably priced, clean, and safe location near the North Gate of Camp Pendleton. Staff outstanding; going out of their way to meet our needs and make our first stay in the area enjoyable.  Easy access (some highway noise, but we didn't mind); enjoyed the second floor balcony with ocean in view.</t>
   </si>
   <si>
+    <t>donbvs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r273483311-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -927,6 +1080,9 @@
     <t>I stayed at this hotel last fall and was happy enough to repeat last week. The entire place is very clean and well maintained. Every one of the staff, from housekeepers to management, was very friendly and helpful. This is not a new hotel, but it has been maintained well and has nice upgrades. The bed was very comfortable; the room (including bath) was spotless. The linens were fresh and nothing looked old, worn or funky. My room had a balcony on the beach (and freeway) side. Yes, it's noisy, but I do enjoy sitting there with a view of the ocean. The room had a fridge, micro, coffee maker and nice TV. Also a table and three chairs. Overall, very comfortable and the price was reasonable. My stay was so pleasant, I suspect I will book again for my next trip to San Clemente.More</t>
   </si>
   <si>
+    <t>partyinvegas2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r268959417-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -939,6 +1095,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Barbara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r267660870-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -948,6 +1107,9 @@
     <t>04/24/2015</t>
   </si>
   <si>
+    <t>Randy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r264871137-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -957,6 +1119,9 @@
     <t>04/10/2015</t>
   </si>
   <si>
+    <t>Marcelo M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r258802044-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -975,6 +1140,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Derrill O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r251628191-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -984,6 +1152,9 @@
     <t>01/29/2015</t>
   </si>
   <si>
+    <t>Tali_81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r239574626-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1005,6 +1176,9 @@
     <t>I literally booked this room just to sleep in for about 6 hours before heading out to catalina for a few days just so we would not have to fight traffic monday morning. It was horrible! Dirty, dingy and the most uncomfortable bed ever. I imagine prisons have better cleaner beds than this. Needless to say we slept on the bedding and not in it. Also the office staff did not seem to like the fact that we were dropped off by an  uber driver. He isisted we use his buddies taxi service in the am. He actually followed us out to the curb to try to talk us into using the taxi instead. Luckily uber showed up in about 1 minute and we jumped in and left while hd stood there (right next yo me) while the driver and my bf loaded the luggage. Talk about pushy.More</t>
   </si>
   <si>
+    <t>Allyson C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r233216656-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1017,6 +1191,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Peter Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r228209846-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1026,6 +1203,9 @@
     <t>09/10/2014</t>
   </si>
   <si>
+    <t>Ben L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r224338877-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1044,6 +1224,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>sheldon b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r215907054-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1062,6 +1245,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Adam Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r215817889-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1077,6 +1263,9 @@
     <t>The location is good, right off of the highway and just a few minutes from base.  The onsite managers are really what sets this place apart.  They are very friendly and incredibly helpful.  My schedule during the stay was irregular, but they went out of there way to be accommodating.  I would highly recommend to anyone looking for an inexpensive, quality hotel.</t>
   </si>
   <si>
+    <t>Mayra A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r203163953-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1098,6 +1287,9 @@
     <t>Don't let the pictures fool you! this place is a dump! The room was dirty! the blanket had stains and also a foot print on it! there were peanut shells on the floor, obviously they did not clean this room! I couldn't switch hotels because it was already reserved and we would lose our money! This place is nasty! it smells nasty too! specially in the "lobby/office" area! At 8am we woke up to the sound of our window shaking, most like from the vibration of an AC going on because there was no type of construction going on, I called the front desk to complain about it and they did not care! These people running this place are not very polite they only care about making money!More</t>
   </si>
   <si>
+    <t>Richard D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r200400447-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1107,6 +1299,9 @@
     <t>04/08/2014</t>
   </si>
   <si>
+    <t>Michelle D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r197387376-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1119,6 +1314,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Ted S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r193348534-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1137,6 +1335,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Mike F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r182839077-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1149,6 +1350,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Kathy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r181316785-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1158,6 +1362,9 @@
     <t>10/16/2013</t>
   </si>
   <si>
+    <t>Chris B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r180276035-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1173,6 +1380,9 @@
     <t>The hotel is located pretty close to the i5 freeway. I didn't mind this but if you don't like traffic noise then avoid. Overall the hotel and room was pretty tired but not unclean. The bed was comfy and everything worked. The staff were polite but they did eyeball us when we went down for breakfast, which was a very unappetising, sparse selection of sugary donuts, cookies and not much else. Can't recommend based on this for the price.</t>
   </si>
   <si>
+    <t>Lynda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r179401377-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1185,6 +1395,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Newmen89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r179271103-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1200,6 +1413,9 @@
     <t>It was my first time to come LA and San Clemente.We went there with my 2friends and we shared the biggest room.The room was really big.shower is always works good.I'll come back here next year for sure.</t>
   </si>
   <si>
+    <t>Joseph D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r174150144-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1212,6 +1428,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>MikenMEinSV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r172724693-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1221,6 +1440,9 @@
     <t>08/17/2013</t>
   </si>
   <si>
+    <t>Kathleen Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r170431928-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1236,6 +1458,9 @@
     <t>We started in San Diego and worked our way up the coast.  No plans, No agenda!  The most taxing thing we did for the week was find a place to stay for the following night.   Nick and Jenny were The most gracious and helpful staff members we have ever encountered! The room was large and clean. A 3 minute car ride to the beach with parking and showers!  We would gladly stay again.</t>
   </si>
   <si>
+    <t>Thomas W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r169997266-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1248,6 +1473,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>skier003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r166807414-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1266,6 +1494,9 @@
     <t>I was a bit chagrined when I got to this travelodge.  I had picked it for price and reliability of the brand.  There were several hotels nearby and I do wish I had stayed at one of them.  There are times I am spending time with friends and only need a place to sleep.  This was one of them.  It was July 4, so as its a holiday i had few expectations.  But really wish I had gone somewhere the odor of curry did not hang in the air.  We has a golf course view.   That was good.  Golf ears make less noise than the freeway traffic.. This falls into the category of " if the price is cheap enough, you can put up with anything"More</t>
   </si>
   <si>
+    <t>Cabana_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r165245291-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1284,6 +1515,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Anthony M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r162356513-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1296,6 +1530,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>John L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r158315407-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1308,6 +1545,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Bruce J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r157723951-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1320,6 +1560,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Linda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r156894576-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1329,6 +1572,9 @@
     <t>04/07/2013</t>
   </si>
   <si>
+    <t>DOCBABE_SCOUT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r149692950-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1347,6 +1593,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r148318700-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1359,6 +1608,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Jake M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r146765803-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1377,6 +1629,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Judi H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r143644348-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1389,6 +1644,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>nitrampf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r142493327-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1398,6 +1656,9 @@
     <t>10/10/2012</t>
   </si>
   <si>
+    <t>jayk83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r142399080-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1416,6 +1677,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Osmani4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r124557724-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1434,6 +1698,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>cwhitley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r122231643-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1455,6 +1722,9 @@
     <t>The San Clemente Travelodge is an older hotel on the city's main drag. It's basic with not too many frills. Space is at such a premium that the Coke and ice machines are outside the lobby in the parking garage.Honestly, I might have given this rating an "average" instead of "poor" except for the fact that our room reeked of pot. We thought it was a previous guest after the scent went away, but the next morning, it came back in full force, leading us to think it was someone across the hall. Now, hotels can't always control its guests. But we were staying there over Christmas with our family, which made it worse. The staff, though, was nice and accommodating, even adding a lemony scent to our room (perhaps we were a little too subtle in explaining our situation). Bottom line: If you're young and looking for a cheap place to crash by the beach, this would be good. For families, though, look somewhere else.More</t>
   </si>
   <si>
+    <t>Jen1125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r117873237-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1473,6 +1743,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>savanreddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r92213565-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1491,6 +1764,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>mountain_goat11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r91424174-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1509,6 +1785,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>drhootie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r78320208-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1536,6 +1815,9 @@
     <t>Alright, i honestly cant believe all of the positive comments on this hotels staff. I was treated horribly my entire stay. I was so miserable there that me and my boyfriend left early. They would yell and throw a fit if we had any visitors past 6pm. Not to mention they completely harrassed a couple of our guests. The staff treated our guests like tresspassers and would escort them out to their cars(our guests were nothing but polite). There was a loud get together of some sorts going on down the hall from us as my boyfriend and i were laying in bed with the music on (not too loudly) and they call to tell us we are being to loud. Ridiculous. I cant even put into words how miserable i was. Miserable enough for it to become a joke that this hotel was probably like jail between me and my boyfriend. Also, our room was the size of a shoe box and the breakfast looked like something set out for some pets. They are also very stingy with their internet, so their "FREE INTERNET" sign that you see as soon as you walk in the door should mention that it comes with griping and moaning. I can understand how pushing that button that prints out the internet code can be tiring. The best part of that stay was driving away.More</t>
   </si>
   <si>
+    <t>biketune</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r57040754-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1554,6 +1836,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>InkedLoner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r22965384-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1572,6 +1857,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>cydona46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r18775458-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1593,6 +1881,9 @@
     <t>I do NOT like to give negative reviews but I wish someone had given me a heads up about this Travelodge. The staff was very sweet and did the best with what they had to work with but  at $150 per night (which I was told at check in was a good deal) I was hoping for the room that was described...non smoking with an ocean view. Although the room was designated  (indeed the entire hotel) as non smoking, it literally reeked of cigarette smoke. The windows did not open.The smoky curtain covered doors opened onto a deck that was literally over the freeway.  My husband and I left the doors open to air out the room but it never actually happened. It was somewhat comical shouting back and forth to each other over the Hwy 101 traffic. .trucks, buses and all. When the clouds lifted on the second day, we finally saw the little peek of ocean way across the freeway. I have to admit though, I felt better about our room when I saw my sister-in-laws on the first floor which looked like a damp black hole. Sorry, I have to give this one a big thumbs down.More</t>
   </si>
   <si>
+    <t>stonegyrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r12747278-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1614,6 +1905,9 @@
     <t>I've actually stayed at this particular Travelodge twice &amp; both times I had a very nice stay. I got a standard room &amp; was upgraded to the suite (with the jet tub) free, since it wasn't occupied &amp; I was staying for a week.  The staff is very friendly and if you ever need something (towels, pillows, soap...etc) they come riht up and give it to you. I had no problems and the room ws spacious and the bed was comfortable. It was not noisey at all, seeing was though it is off of the busy 5 freeway. Very convenient if you need to get somewhere, the 5 is right across the way.  There are restraunts and a local grocery store within 5 minutes from the hotel "Ralphs". Right next door there's a "mart", gas station &amp; behind is a golfing range. I would definitely recommend Travelodge to anyone. They even provide a nice covered parking spot for all customers in there's garage (free of course). I liked it because it was small, quiet &amp; comfy. Stay here!More</t>
   </si>
   <si>
+    <t>andreausa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r10086349-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1632,6 +1926,9 @@
     <t>September 2007</t>
   </si>
   <si>
+    <t>WEARYTRAVELER88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r10048793-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1645,6 +1942,9 @@
   </si>
   <si>
     <t>We drove by and stopped, stayed due to cost.  In  the evening after driving all day we were tired...this looked like a decent motel we needed to park in back as room was on 1st floor in rear.  Room was OK looked clean. front of room had balcony and overlooked busy highway.  I left my cell phone there by mistake, room service found it and Nicky &amp; Jenny (owners) sent it back to me via pre-paid fedex.  It was very honest of them since it was a newer blackberry...I would stay there again if I was in the area as accomodations good and price was right.</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d78100-r830235-Travelodge_by_Wyndham_San_Clemente_Beach-San_Clemente_California.html</t>
@@ -2164,43 +2464,47 @@
       <c r="A2" t="n">
         <v>21815</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2224,35 +2528,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21815</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2260,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2284,51 +2592,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21815</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2352,50 +2661,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21815</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2419,35 +2732,39 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21815</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2455,10 +2772,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2479,51 +2796,52 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21815</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2547,35 +2865,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21815</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2583,10 +2905,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2607,51 +2929,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21815</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2665,50 +2988,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>21815</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2732,35 +3059,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21815</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2768,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2792,36 +3123,37 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21815</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2829,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2853,49 +3185,50 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21815</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2919,50 +3252,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21815</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2980,50 +3317,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21815</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3047,50 +3388,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21815</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3114,35 +3459,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21815</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3150,10 +3499,10 @@
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3174,51 +3523,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21815</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3238,35 +3588,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21815</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3274,10 +3628,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3298,51 +3652,52 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21815</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3366,50 +3721,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>21815</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3433,50 +3792,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21815</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3500,35 +3863,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21815</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3536,10 +3903,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3560,36 +3927,37 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21815</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3597,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3621,51 +3989,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>21815</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3689,50 +4058,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>21815</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3750,35 +4123,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>21815</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3786,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3810,49 +4187,50 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>21815</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3876,50 +4254,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>21815</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3939,50 +4321,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>21815</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4006,35 +4392,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>21815</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -4042,10 +4432,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4066,51 +4456,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>21815</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>225</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4134,50 +4525,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>21815</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="J33" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4191,48 +4586,52 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>21815</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4254,56 +4653,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="X34" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="Y34" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>21815</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4323,50 +4726,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>21815</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4386,50 +4793,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>21815</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4449,50 +4860,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>21815</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4510,35 +4925,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>21815</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="J39" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4546,10 +4965,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4570,51 +4989,52 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>21815</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>274</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="J40" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4632,48 +5052,52 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>21815</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>281</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4697,50 +5121,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>21815</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>286</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="J42" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4758,35 +5186,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>21815</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="J43" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4794,10 +5226,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4818,51 +5250,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>21815</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>297</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="J44" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="K44" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4882,50 +5315,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>21815</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="J45" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="K45" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4949,50 +5386,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>21815</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>310</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="J46" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="K46" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="O46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5016,50 +5457,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>21815</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>317</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -5079,50 +5524,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>21815</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>324</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="J48" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="K48" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5146,35 +5595,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>21815</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>331</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="J49" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5182,10 +5635,10 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5206,49 +5659,50 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>21815</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>336</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J50" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="O50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -5272,50 +5726,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>21815</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>341</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="J51" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="K51" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5335,50 +5793,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>21815</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>347</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="J52" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="K52" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5398,48 +5860,52 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>21815</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>354</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="J53" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5463,35 +5929,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>21815</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>359</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="J54" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5499,10 +5969,10 @@
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="O54" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5523,36 +5993,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>21815</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>363</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="J55" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5560,10 +6031,10 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5584,51 +6055,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>21815</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>367</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="J56" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="K56" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="L56" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5648,35 +6120,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>21815</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>374</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="J57" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5684,10 +6160,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5708,51 +6184,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>21815</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="J58" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="K58" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="O58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5766,35 +6243,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>21815</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>386</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="J59" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5802,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -5826,49 +6307,50 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>21815</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>391</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="J60" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5892,50 +6374,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>21815</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5959,50 +6445,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>21815</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>402</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="J62" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K62" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="O62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6020,50 +6510,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>21815</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>409</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="J63" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="K63" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="L63" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6079,50 +6573,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>21815</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>415</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="J64" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="K64" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="O64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6146,35 +6644,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>21815</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>423</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="J65" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6182,10 +6684,10 @@
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="O65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6206,36 +6708,37 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>21815</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>427</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="J66" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6243,10 +6746,10 @@
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6267,51 +6770,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>21815</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>432</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="J67" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="O67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6335,35 +6839,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>21815</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>439</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="J68" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6371,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6395,36 +6903,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>21815</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>444</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="J69" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6432,10 +6941,10 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="O69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6456,51 +6965,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>21815</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>448</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="J70" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="K70" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="O70" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6514,35 +7024,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>21815</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>454</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="J71" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6550,10 +7064,10 @@
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="O71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6574,51 +7088,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>21815</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>459</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="J72" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="K72" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="O72" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6642,48 +7157,52 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>21815</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>465</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="J73" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6707,35 +7226,39 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>21815</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>470</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="J74" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6743,10 +7266,10 @@
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="O74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6767,51 +7290,52 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>21815</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>474</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="J75" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="K75" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="L75" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="O75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6835,48 +7359,52 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>21815</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>480</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="J76" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="O76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P76" t="n">
         <v>2</v>
@@ -6900,50 +7428,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>21815</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>485</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="J77" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="K77" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="O77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -6967,50 +7499,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>415</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>21815</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>492</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="J78" t="s">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="K78" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="L78" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>421</v>
+        <v>498</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7034,35 +7570,39 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>21815</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>499</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="J79" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7070,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="O79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -7094,36 +7634,37 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>21815</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>504</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="J80" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7131,10 +7672,10 @@
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="O80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7155,36 +7696,37 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>21815</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>509</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="J81" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7192,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="O81" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7214,36 +7756,37 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>21815</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>514</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>516</v>
       </c>
       <c r="J82" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7251,10 +7794,10 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="O82" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7275,51 +7818,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>21815</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>518</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="J83" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="K83" t="s">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="L83" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="O83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7343,35 +7887,39 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>21815</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>525</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="J84" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7379,10 +7927,10 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="O84" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7403,51 +7951,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>21815</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>530</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="J85" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="K85" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="L85" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="O85" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7461,35 +8010,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>21815</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>537</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="J86" t="s">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7497,10 +8050,10 @@
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="O86" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7521,36 +8074,37 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>21815</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>542</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>457</v>
+        <v>543</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="J87" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7558,10 +8112,10 @@
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="O87" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -7582,51 +8136,52 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>21815</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>546</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>461</v>
+        <v>548</v>
       </c>
       <c r="J88" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="K88" t="s">
-        <v>463</v>
+        <v>550</v>
       </c>
       <c r="L88" t="s">
-        <v>464</v>
+        <v>551</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="O88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7650,50 +8205,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>464</v>
+        <v>551</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>21815</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>553</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>467</v>
+        <v>555</v>
       </c>
       <c r="J89" t="s">
-        <v>468</v>
+        <v>556</v>
       </c>
       <c r="K89" t="s">
-        <v>469</v>
+        <v>557</v>
       </c>
       <c r="L89" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="O89" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7717,50 +8276,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>21815</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>560</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>473</v>
+        <v>562</v>
       </c>
       <c r="J90" t="s">
-        <v>474</v>
+        <v>563</v>
       </c>
       <c r="K90" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="L90" t="s">
-        <v>476</v>
+        <v>565</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>477</v>
+        <v>566</v>
       </c>
       <c r="O90" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -7784,50 +8347,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>21815</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>568</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="J91" t="s">
-        <v>481</v>
+        <v>571</v>
       </c>
       <c r="K91" t="s">
-        <v>482</v>
+        <v>572</v>
       </c>
       <c r="L91" t="s">
-        <v>483</v>
+        <v>573</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="O91" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -7847,50 +8414,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>483</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>21815</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>575</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>485</v>
+        <v>576</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="J92" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="K92" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="L92" t="s">
-        <v>489</v>
+        <v>580</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>490</v>
+        <v>581</v>
       </c>
       <c r="O92" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -7914,50 +8485,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>489</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>21815</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>582</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="J93" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="K93" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="L93" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="O93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -7981,50 +8556,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>21815</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>589</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>497</v>
+        <v>590</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>498</v>
+        <v>591</v>
       </c>
       <c r="J94" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
       <c r="K94" t="s">
-        <v>500</v>
+        <v>593</v>
       </c>
       <c r="L94" t="s">
-        <v>501</v>
+        <v>594</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="O94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8046,56 +8625,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>503</v>
+        <v>596</v>
       </c>
       <c r="X94" t="s">
-        <v>504</v>
+        <v>597</v>
       </c>
       <c r="Y94" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>21815</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>599</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>507</v>
+        <v>601</v>
       </c>
       <c r="J95" t="s">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="K95" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="L95" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
       <c r="O95" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8119,50 +8702,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>21815</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>606</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>512</v>
+        <v>607</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>513</v>
+        <v>608</v>
       </c>
       <c r="J96" t="s">
-        <v>514</v>
+        <v>609</v>
       </c>
       <c r="K96" t="s">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="L96" t="s">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>517</v>
+        <v>612</v>
       </c>
       <c r="O96" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -8186,50 +8773,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>516</v>
+        <v>611</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>21815</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>613</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>518</v>
+        <v>614</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>519</v>
+        <v>615</v>
       </c>
       <c r="J97" t="s">
-        <v>520</v>
+        <v>616</v>
       </c>
       <c r="K97" t="s">
-        <v>521</v>
+        <v>617</v>
       </c>
       <c r="L97" t="s">
-        <v>522</v>
+        <v>618</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>523</v>
+        <v>619</v>
       </c>
       <c r="O97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -8253,50 +8844,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>524</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>21815</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>621</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>525</v>
+        <v>622</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>526</v>
+        <v>623</v>
       </c>
       <c r="J98" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="K98" t="s">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="L98" t="s">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>530</v>
+        <v>627</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8320,50 +8915,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>531</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>21815</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>629</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>532</v>
+        <v>630</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>533</v>
+        <v>631</v>
       </c>
       <c r="J99" t="s">
-        <v>534</v>
+        <v>632</v>
       </c>
       <c r="K99" t="s">
-        <v>535</v>
+        <v>633</v>
       </c>
       <c r="L99" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="O99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="n">
@@ -8385,50 +8984,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>21815</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>636</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="J100" t="s">
-        <v>540</v>
+        <v>639</v>
       </c>
       <c r="K100" t="s">
-        <v>541</v>
+        <v>640</v>
       </c>
       <c r="L100" t="s">
-        <v>542</v>
+        <v>641</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="O100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -8452,41 +9055,45 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>542</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>21815</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>642</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="J101" t="s">
-        <v>545</v>
+        <v>645</v>
       </c>
       <c r="K101" t="s">
-        <v>546</v>
+        <v>646</v>
       </c>
       <c r="L101" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
@@ -8505,7 +9112,7 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
